--- a/Forcasting.xlsx
+++ b/Forcasting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\my project123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E481F810-2CF0-4DDE-890F-22F0C6E03259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA335F34-8188-4EDD-BD47-4218E484F52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F80C70AB-9A8A-4D5E-B0FB-06CEF3A1AA35}"/>
   </bookViews>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5B7B1F-5CAC-4CCE-AE53-871B71DFE681}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,30 +800,6 @@
         <v>47432.879097046323</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>2009</v>
-      </c>
-      <c r="B51">
-        <v>38820.014589417297</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>2010</v>
-      </c>
-      <c r="B52">
-        <v>39693.193870123687</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>2011</v>
-      </c>
-      <c r="B53">
-        <v>42150.698140882145</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
